--- a/bin/enhance/hrnet.xlsx
+++ b/bin/enhance/hrnet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longpham/10-workspace/11-code/mon/bin/enhance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2826163-C697-47F8-A35C-6F361FBDEB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EF72D8-783F-794D-BC04-16FDD8A02A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{19215FB6-1595-41B9-ABC7-14622C87B791}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15880" windowHeight="19880" xr2:uid="{19215FB6-1595-41B9-ABC7-14622C87B791}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,18 +154,18 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,345 +484,345 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5"/>
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>51.07</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>83.52</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>51.42</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>83.59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>45.35</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>82.27</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>46.5</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>82.29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>49.58</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>82.98</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>50.22</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>83.03</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>50.06</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>83.13</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>50.66</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>83.19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>49.62</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>83.13</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>50.19</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>83.13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>49.89</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>83.15</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>50.39</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>83.25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>45.34</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>80.7</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>46.55</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>81.209999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>49.62</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>82.95</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>50.22</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>47.84</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>82.61</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>48.66</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>82.71</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>48.65</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>82.88</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>49.41</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>82.82</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>45.45</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>81.510000000000005</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>44.69</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>80.66</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>47.22</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>82.79</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>49.11</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>82.94</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>50.15</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>83.21</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>50.81</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>83.31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>29.12</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>59.9</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>32.29</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>61.64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>49.57</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>83.07</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>50.5</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>83.17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>38.130000000000003</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>75.59</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>43.51</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>77.849999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>49.18</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>82.76</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>49.82</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>82.92</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>50.13</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>83.22</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>50.68</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>83.29</v>
       </c>
     </row>
@@ -833,5 +833,6 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>